--- a/Hooman docs/my films.xlsx
+++ b/Hooman docs/my films.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="films" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="503">
   <si>
     <t>نام فیلم</t>
   </si>
@@ -958,9 +958,6 @@
     <t>DAT</t>
   </si>
   <si>
-    <t>121-122</t>
-  </si>
-  <si>
     <t>شماره دیسک</t>
   </si>
   <si>
@@ -1024,421 +1021,517 @@
     <t>23-24</t>
   </si>
   <si>
-    <t>خانه هیولا</t>
+    <t>lion king 1/2</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>27-28</t>
+  </si>
+  <si>
+    <t>اخراجی ها 2</t>
+  </si>
+  <si>
+    <t>29-30</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>1xCD</t>
+  </si>
+  <si>
+    <t>ratatouille</t>
+  </si>
+  <si>
+    <t>77-78</t>
+  </si>
+  <si>
+    <t>79-80</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>81-82</t>
+  </si>
+  <si>
+    <t>نام بازی</t>
+  </si>
+  <si>
+    <t>نام</t>
+  </si>
+  <si>
+    <t>chess master 10</t>
+  </si>
+  <si>
+    <t>41-42-43</t>
+  </si>
+  <si>
+    <t>harry potter 3</t>
+  </si>
+  <si>
+    <t>office 2007</t>
+  </si>
+  <si>
+    <t>45-46</t>
+  </si>
+  <si>
+    <t>neighbourd from the hell</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>49-50</t>
+  </si>
+  <si>
+    <t>darinous</t>
+  </si>
+  <si>
+    <t>madagascar</t>
+  </si>
+  <si>
+    <t>kids games</t>
+  </si>
+  <si>
+    <t>اطلس بدن</t>
+  </si>
+  <si>
+    <t>boards games</t>
+  </si>
+  <si>
+    <t>air simulator</t>
+  </si>
+  <si>
+    <t>need for speed 7</t>
+  </si>
+  <si>
+    <t>need for speed 5</t>
+  </si>
+  <si>
+    <t>GTA 4</t>
+  </si>
+  <si>
+    <t>59-60</t>
+  </si>
+  <si>
+    <t>GTA 5</t>
+  </si>
+  <si>
+    <t>61-62-63-64-65</t>
+  </si>
+  <si>
+    <t>the sims 2</t>
+  </si>
+  <si>
+    <t>67-68-69-70</t>
+  </si>
+  <si>
+    <t>the sims 2 update</t>
+  </si>
+  <si>
+    <t>crash 1 …</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>73-74</t>
+  </si>
+  <si>
+    <t>75-76</t>
+  </si>
+  <si>
+    <t>83-84</t>
+  </si>
+  <si>
+    <t>air confillicts</t>
+  </si>
+  <si>
+    <t>need for speed 10</t>
+  </si>
+  <si>
+    <t>86-87</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>crash 2 ….</t>
+  </si>
+  <si>
+    <t>89-90</t>
+  </si>
+  <si>
+    <t>bionic comando</t>
+  </si>
+  <si>
+    <t>91-92</t>
+  </si>
+  <si>
+    <t>solid works 2007</t>
+  </si>
+  <si>
+    <t>solid works 2009</t>
+  </si>
+  <si>
+    <t>need for speed hot per suit</t>
+  </si>
+  <si>
+    <t>95-96</t>
+  </si>
+  <si>
+    <t>bio,coun,harry,hercul</t>
+  </si>
+  <si>
+    <t>lego batman</t>
+  </si>
+  <si>
+    <t>nero 7</t>
+  </si>
+  <si>
+    <t>nero 9</t>
+  </si>
+  <si>
+    <t>windows seven</t>
+  </si>
+  <si>
+    <t>windows seven sp1</t>
+  </si>
+  <si>
+    <t>photoshop cs</t>
+  </si>
+  <si>
+    <t>photoshop cs 2</t>
+  </si>
+  <si>
+    <t>photoshop cs 3</t>
+  </si>
+  <si>
+    <t>adobe collection cs 5</t>
+  </si>
+  <si>
+    <t>adobe suit cs 5</t>
+  </si>
+  <si>
+    <t>gerdoo 1</t>
+  </si>
+  <si>
+    <t>gerdoo 2</t>
+  </si>
+  <si>
+    <t>gerdoo 3</t>
+  </si>
+  <si>
+    <t>gerdoo 4</t>
+  </si>
+  <si>
+    <t>gerdoo 5</t>
+  </si>
+  <si>
+    <t>gerdoo 6</t>
+  </si>
+  <si>
+    <t>gerdoo 8</t>
+  </si>
+  <si>
+    <t>windows xp sp2</t>
+  </si>
+  <si>
+    <t>ubuntu 11.04</t>
+  </si>
+  <si>
+    <t>ubuntu 10.04</t>
+  </si>
+  <si>
+    <t>harry potter and half blood prince</t>
+  </si>
+  <si>
+    <t>119-120</t>
+  </si>
+  <si>
+    <t>lego harry potter</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>counter strick</t>
+  </si>
+  <si>
+    <t>need for speed most wanted 2012</t>
+  </si>
+  <si>
+    <t>angru birds</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>bazi</t>
+  </si>
+  <si>
+    <t>warcraft</t>
+  </si>
+  <si>
+    <t>worms</t>
+  </si>
+  <si>
+    <t>harry potter 8</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>the prince and the frog</t>
+  </si>
+  <si>
+    <t>batman collection</t>
+  </si>
+  <si>
+    <t>6.22GB</t>
+  </si>
+  <si>
+    <t>john english 1</t>
+  </si>
+  <si>
+    <t>leon</t>
+  </si>
+  <si>
+    <t>Nanny Mcphee Returns</t>
+  </si>
+  <si>
+    <t>simpson movie</t>
+  </si>
+  <si>
+    <t>spy kids 4</t>
+  </si>
+  <si>
+    <t>transformers collection</t>
+  </si>
+  <si>
+    <t>6.24GB</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>pulp fiction</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>kung fu panda</t>
+  </si>
+  <si>
+    <t>open season 2</t>
+  </si>
+  <si>
+    <t>barn yard 2</t>
+  </si>
+  <si>
+    <t>barn yard 3</t>
+  </si>
+  <si>
+    <t>spider man 1</t>
+  </si>
+  <si>
+    <t>battle ship</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>blue sky</t>
+  </si>
+  <si>
+    <t>5 centimeter per second</t>
+  </si>
+  <si>
+    <t>1.45GB</t>
+  </si>
+  <si>
+    <t>jock the hero dog</t>
+  </si>
+  <si>
+    <t>robin hood</t>
+  </si>
+  <si>
+    <t>wreck it ralph</t>
+  </si>
+  <si>
+    <t>the reef 2 high tide</t>
+  </si>
+  <si>
+    <t>madly madagascar</t>
+  </si>
+  <si>
+    <t>5.74GB</t>
+  </si>
+  <si>
+    <t>9.19GB</t>
+  </si>
+  <si>
+    <t>oscar 2013</t>
+  </si>
+  <si>
+    <t>3GB</t>
+  </si>
+  <si>
+    <t>spirited</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Grave Of The Fireflies</t>
+  </si>
+  <si>
+    <t>Scar Face</t>
+  </si>
+  <si>
+    <t>al pacino</t>
+  </si>
+  <si>
+    <t>6.83GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thor </t>
+  </si>
+  <si>
+    <t>Ultramarines A Warhammer</t>
+  </si>
+  <si>
+    <t>gladiators of romes</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>6.41GB</t>
+  </si>
+  <si>
+    <t>rise of the gurdians</t>
+  </si>
+  <si>
+    <t>eng/rus</t>
+  </si>
+  <si>
+    <t>igor</t>
+  </si>
+  <si>
+    <t>team america world  police</t>
+  </si>
+  <si>
+    <t>tad the lost explorer</t>
+  </si>
+  <si>
+    <t>scape from planet earth internal</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>monster house</t>
   </si>
   <si>
     <t>25-26</t>
   </si>
   <si>
-    <t>lion king 1/2</t>
-  </si>
-  <si>
-    <t>19-20</t>
-  </si>
-  <si>
-    <t>27-28</t>
-  </si>
-  <si>
-    <t>اخراجی ها 2</t>
-  </si>
-  <si>
-    <t>29-30</t>
-  </si>
-  <si>
-    <t>31-32</t>
-  </si>
-  <si>
-    <t>33-34</t>
-  </si>
-  <si>
-    <t>1xCD</t>
-  </si>
-  <si>
-    <t>ratatouille</t>
-  </si>
-  <si>
-    <t>77-78</t>
-  </si>
-  <si>
-    <t>79-80</t>
-  </si>
-  <si>
-    <t>15-16</t>
-  </si>
-  <si>
-    <t>13-14</t>
-  </si>
-  <si>
-    <t>81-82</t>
-  </si>
-  <si>
-    <t>نام بازی</t>
-  </si>
-  <si>
-    <t>نام</t>
-  </si>
-  <si>
-    <t>chess master 10</t>
-  </si>
-  <si>
-    <t>41-42-43</t>
-  </si>
-  <si>
-    <t>harry potter 3</t>
-  </si>
-  <si>
-    <t>office 2007</t>
-  </si>
-  <si>
-    <t>45-46</t>
-  </si>
-  <si>
-    <t>neighbourd from the hell</t>
-  </si>
-  <si>
-    <t>47-48</t>
-  </si>
-  <si>
-    <t>49-50</t>
-  </si>
-  <si>
-    <t>darinous</t>
-  </si>
-  <si>
-    <t>madagascar</t>
-  </si>
-  <si>
-    <t>kids games</t>
-  </si>
-  <si>
-    <t>اطلس بدن</t>
-  </si>
-  <si>
-    <t>boards games</t>
-  </si>
-  <si>
-    <t>air simulator</t>
-  </si>
-  <si>
-    <t>need for speed 7</t>
-  </si>
-  <si>
-    <t>need for speed 5</t>
-  </si>
-  <si>
-    <t>GTA 4</t>
-  </si>
-  <si>
-    <t>59-60</t>
-  </si>
-  <si>
-    <t>GTA 5</t>
-  </si>
-  <si>
-    <t>61-62-63-64-65</t>
-  </si>
-  <si>
-    <t>the sims 2</t>
-  </si>
-  <si>
-    <t>67-68-69-70</t>
-  </si>
-  <si>
-    <t>the sims 2 update</t>
-  </si>
-  <si>
-    <t>crash 1 …</t>
-  </si>
-  <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>73-74</t>
-  </si>
-  <si>
-    <t>75-76</t>
-  </si>
-  <si>
-    <t>83-84</t>
-  </si>
-  <si>
-    <t>air confillicts</t>
-  </si>
-  <si>
-    <t>need for speed 10</t>
-  </si>
-  <si>
-    <t>86-87</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>crash 2 ….</t>
-  </si>
-  <si>
-    <t>89-90</t>
-  </si>
-  <si>
-    <t>bionic comando</t>
-  </si>
-  <si>
-    <t>91-92</t>
-  </si>
-  <si>
-    <t>solid works 2007</t>
-  </si>
-  <si>
-    <t>solid works 2009</t>
-  </si>
-  <si>
-    <t>need for speed hot per suit</t>
-  </si>
-  <si>
-    <t>95-96</t>
-  </si>
-  <si>
-    <t>bio,coun,harry,hercul</t>
-  </si>
-  <si>
-    <t>lego batman</t>
-  </si>
-  <si>
-    <t>nero 7</t>
-  </si>
-  <si>
-    <t>nero 9</t>
-  </si>
-  <si>
-    <t>windows seven</t>
-  </si>
-  <si>
-    <t>windows seven sp1</t>
-  </si>
-  <si>
-    <t>photoshop cs</t>
-  </si>
-  <si>
-    <t>photoshop cs 2</t>
-  </si>
-  <si>
-    <t>photoshop cs 3</t>
-  </si>
-  <si>
-    <t>adobe collection cs 5</t>
-  </si>
-  <si>
-    <t>adobe suit cs 5</t>
-  </si>
-  <si>
-    <t>gerdoo 1</t>
-  </si>
-  <si>
-    <t>gerdoo 2</t>
-  </si>
-  <si>
-    <t>gerdoo 3</t>
-  </si>
-  <si>
-    <t>gerdoo 4</t>
-  </si>
-  <si>
-    <t>gerdoo 5</t>
-  </si>
-  <si>
-    <t>gerdoo 6</t>
-  </si>
-  <si>
-    <t>gerdoo 8</t>
-  </si>
-  <si>
-    <t>windows xp sp2</t>
-  </si>
-  <si>
-    <t>ubuntu 11.04</t>
-  </si>
-  <si>
-    <t>ubuntu 10.04</t>
-  </si>
-  <si>
-    <t>harry potter and half blood prince</t>
-  </si>
-  <si>
-    <t>119-120</t>
-  </si>
-  <si>
-    <t>lego harry potter</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>counter strick</t>
-  </si>
-  <si>
-    <t>need for speed most wanted 2012</t>
-  </si>
-  <si>
-    <t>angru birds</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>bazi</t>
-  </si>
-  <si>
-    <t>warcraft</t>
-  </si>
-  <si>
-    <t>worms</t>
-  </si>
-  <si>
-    <t>harry potter 8</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>the prince and the frog</t>
-  </si>
-  <si>
-    <t>batman collection</t>
-  </si>
-  <si>
-    <t>6.22GB</t>
-  </si>
-  <si>
-    <t>john english 1</t>
-  </si>
-  <si>
-    <t>leon</t>
-  </si>
-  <si>
-    <t>Nanny Mcphee Returns</t>
-  </si>
-  <si>
-    <t>simpson movie</t>
-  </si>
-  <si>
-    <t>spy kids 4</t>
-  </si>
-  <si>
-    <t>transformers collection</t>
-  </si>
-  <si>
-    <t>6.24GB</t>
-  </si>
-  <si>
-    <t>Django</t>
-  </si>
-  <si>
-    <t>pulp fiction</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>kung fu panda</t>
-  </si>
-  <si>
-    <t>open season 2</t>
-  </si>
-  <si>
-    <t>barn yard 2</t>
-  </si>
-  <si>
-    <t>barn yard 3</t>
-  </si>
-  <si>
-    <t>spider man 1</t>
-  </si>
-  <si>
-    <t>battle ship</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>blue sky</t>
-  </si>
-  <si>
-    <t>5 centimeter per second</t>
-  </si>
-  <si>
-    <t>1.45GB</t>
-  </si>
-  <si>
-    <t>jock the hero dog</t>
-  </si>
-  <si>
-    <t>robin hood</t>
-  </si>
-  <si>
-    <t>wreck it ralph</t>
-  </si>
-  <si>
-    <t>the reef 2 high tide</t>
-  </si>
-  <si>
-    <t>madly madagascar</t>
-  </si>
-  <si>
-    <t>5.74GB</t>
-  </si>
-  <si>
-    <t>9.19GB</t>
-  </si>
-  <si>
-    <t>oscar 2013</t>
-  </si>
-  <si>
-    <t>3GB</t>
-  </si>
-  <si>
-    <t>spirited</t>
-  </si>
-  <si>
-    <t>Argo</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Grave Of The Fireflies</t>
-  </si>
-  <si>
-    <t>Scar Face</t>
-  </si>
-  <si>
-    <t>al pacino</t>
-  </si>
-  <si>
-    <t>6.83GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thor </t>
-  </si>
-  <si>
-    <t>Ultramarines A Warhammer</t>
-  </si>
-  <si>
-    <t>gladiators of romes</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>6.41GB</t>
-  </si>
-  <si>
-    <t>rise of the gurdians</t>
-  </si>
-  <si>
-    <t>eng/rus</t>
-  </si>
-  <si>
-    <t>igor</t>
+    <t>punk'd s9-1,2,3,4</t>
+  </si>
+  <si>
+    <t>tvshow</t>
+  </si>
+  <si>
+    <t>2.72GB</t>
+  </si>
+  <si>
+    <t>american music awards 2010</t>
+  </si>
+  <si>
+    <t>1.2GB</t>
+  </si>
+  <si>
+    <t>american music awards 2011</t>
+  </si>
+  <si>
+    <t>victoria secret fashion show 2010</t>
+  </si>
+  <si>
+    <t>mtv movie 2012</t>
+  </si>
+  <si>
+    <t>640p</t>
+  </si>
+  <si>
+    <t>2.36GB</t>
+  </si>
+  <si>
+    <t>mtv europe music award 2012</t>
+  </si>
+  <si>
+    <t>mtv vidoe music awards 2011</t>
+  </si>
+  <si>
+    <t>3.27GB</t>
+  </si>
+  <si>
+    <t>54th grammy awards 2012</t>
+  </si>
+  <si>
+    <t>1.32GB</t>
+  </si>
+  <si>
+    <t>55th grammy awards 2013</t>
+  </si>
+  <si>
+    <t>billboard music award 2012</t>
+  </si>
+  <si>
+    <t>2.85GB</t>
+  </si>
+  <si>
+    <t>teen choice awards 2012</t>
+  </si>
+  <si>
+    <t>2.56GB</t>
+  </si>
+  <si>
+    <t>38th people choice awards 2012</t>
+  </si>
+  <si>
+    <t>stream boy</t>
+  </si>
+  <si>
+    <t>jap</t>
+  </si>
+  <si>
+    <t>6.32GB</t>
+  </si>
+  <si>
+    <t>step u revolution</t>
+  </si>
+  <si>
+    <t>hana montana</t>
+  </si>
+  <si>
+    <t>dragons hunters</t>
+  </si>
+  <si>
+    <t>1.07GB</t>
   </si>
 </sst>
 </file>
@@ -1829,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1963,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2205,7 +2298,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>113</v>
@@ -2215,7 +2308,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>27</v>
@@ -3137,7 +3230,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>45</v>
@@ -3249,7 +3342,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>45</v>
@@ -3735,7 +3828,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>45</v>
@@ -3745,7 +3838,7 @@
         <v>31</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>27</v>
@@ -3999,7 +4092,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>45</v>
@@ -4009,7 +4102,7 @@
         <v>73</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>27</v>
@@ -4243,29 +4336,31 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>281</v>
+        <v>500</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D108" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>282</v>
+      <c r="E108" s="2">
+        <v>699</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>45</v>
@@ -4274,20 +4369,20 @@
       <c r="D109" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E109" s="2">
-        <v>399</v>
+      <c r="E109" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>45</v>
@@ -4297,7 +4392,7 @@
         <v>107</v>
       </c>
       <c r="E110" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>27</v>
@@ -4309,7 +4404,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>45</v>
@@ -4319,7 +4414,7 @@
         <v>107</v>
       </c>
       <c r="E111" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>27</v>
@@ -4331,14 +4426,12 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
         <v>107</v>
       </c>
@@ -4355,39 +4448,41 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D113" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E113" s="2">
-        <v>701</v>
+        <v>399</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E114" s="2">
-        <v>702</v>
+        <v>749</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>27</v>
@@ -4399,75 +4494,75 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="C115" s="2"/>
       <c r="D115" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E115" s="2">
-        <v>428</v>
+        <v>702</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D116" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>96</v>
+      <c r="E116" s="2">
+        <v>428</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="2">
-        <v>599</v>
+        <v>107</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>45</v>
@@ -4477,7 +4572,7 @@
         <v>23</v>
       </c>
       <c r="E118" s="2">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>27</v>
@@ -4489,53 +4584,53 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E119" s="2">
-        <v>701</v>
+        <v>517</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D120" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E120" s="2">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H120" s="5"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>45</v>
@@ -4545,7 +4640,7 @@
         <v>23</v>
       </c>
       <c r="E121" s="2">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>27</v>
@@ -4557,39 +4652,39 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>96</v>
+        <v>23</v>
+      </c>
+      <c r="E122" s="2">
+        <v>699</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H122" s="5"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E123" s="2">
-        <v>380</v>
+        <v>699</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>27</v>
@@ -4601,29 +4696,29 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="2">
-        <v>599</v>
+        <v>107</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>45</v>
@@ -4633,85 +4728,85 @@
         <v>107</v>
       </c>
       <c r="E125" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H125" s="5"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>303</v>
+        <v>23</v>
+      </c>
+      <c r="E126" s="2">
+        <v>599</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H126" s="5"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>432</v>
+        <v>301</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2">
-        <v>549</v>
+        <v>372</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>430</v>
+        <v>302</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="2">
-        <v>548</v>
+        <v>107</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H128" s="5"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>45</v>
@@ -4721,7 +4816,7 @@
         <v>23</v>
       </c>
       <c r="E129" s="2">
-        <v>706</v>
+        <v>549</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>27</v>
@@ -4733,17 +4828,17 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E130" s="2">
-        <v>699</v>
+        <v>548</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>27</v>
@@ -4755,7 +4850,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>45</v>
@@ -4765,7 +4860,7 @@
         <v>23</v>
       </c>
       <c r="E131" s="2">
-        <v>900</v>
+        <v>706</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>27</v>
@@ -4777,41 +4872,39 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E132" s="2">
-        <v>559</v>
+        <v>699</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="2">
-        <v>698</v>
+        <v>900</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>27</v>
@@ -4823,23 +4916,23 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2">
-        <v>448</v>
+        <v>559</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H134" s="5"/>
     </row>
@@ -4850,12 +4943,14 @@
       <c r="B135" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="D135" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E135" s="2">
-        <v>798</v>
+        <v>698</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>27</v>
@@ -4867,17 +4962,17 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>305</v>
+        <v>23</v>
+      </c>
+      <c r="E136" s="2">
+        <v>448</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>27</v>
@@ -4885,148 +4980,456 @@
       <c r="G136" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="6"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>306</v>
+        <v>455</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E137" s="2">
-        <v>700</v>
+        <v>798</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>309</v>
+        <v>479</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>315</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H138" s="5"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>317</v>
+        <v>481</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>318</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H139" s="5"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>323</v>
+        <v>480</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>324</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H140" s="5"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>338</v>
+        <v>482</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>309</v>
+        <v>483</v>
+      </c>
+      <c r="E141" s="2">
+        <v>876</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H141" s="5"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>325</v>
+        <v>485</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E145" s="2">
+        <v>875</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E148" s="2">
+        <v>698</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151" s="2">
+        <v>700</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H142" s="6" t="s">
-        <v>347</v>
+      <c r="H152" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5037,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,7 +5481,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5104,7 +5507,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5125,7 +5528,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -5143,12 +5546,12 @@
         <v>310</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -5166,12 +5569,12 @@
         <v>310</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
@@ -5189,7 +5592,7 @@
         <v>310</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5212,7 +5615,7 @@
         <v>310</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5277,7 +5680,7 @@
         <v>310</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5387,7 +5790,7 @@
         <v>310</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,7 +5939,7 @@
         <v>310</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5634,7 +6037,7 @@
         <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>27</v>
@@ -5652,10 +6055,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="2">
-        <v>549</v>
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>27</v>
@@ -5709,7 +6112,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -5727,12 +6130,12 @@
         <v>310</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -5750,7 +6153,7 @@
         <v>310</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -5962,7 +6365,7 @@
         <v>310</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -6024,10 +6427,10 @@
         <v>63</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="2">
-        <v>499</v>
+        <v>31</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>27</v>
@@ -6063,7 +6466,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -6119,7 +6522,7 @@
         <v>31</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>27</v>
@@ -6527,7 +6930,7 @@
         <v>310</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,7 +6995,7 @@
         <v>310</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -6870,7 +7273,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>14</v>
@@ -6888,7 +7291,7 @@
         <v>310</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -7049,7 +7452,7 @@
         <v>228</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>28</v>
@@ -7072,7 +7475,7 @@
         <v>228</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>28</v>
@@ -7095,7 +7498,7 @@
         <v>228</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>28</v>
@@ -7382,7 +7785,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>14</v>
@@ -7400,7 +7803,7 @@
         <v>310</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -7426,7 +7829,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>75</v>
@@ -7435,10 +7838,10 @@
         <v>31</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>19</v>
@@ -7447,7 +7850,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>14</v>
@@ -7462,10 +7865,10 @@
         <v>28</v>
       </c>
       <c r="G112" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -7554,7 +7957,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>14</v>
@@ -7593,7 +7996,7 @@
         <v>310</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>311</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -7688,10 +8091,10 @@
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E123" s="2">
-        <v>704</v>
+        <v>439</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>27</v>
@@ -7766,28 +8169,28 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>183</v>
+        <v>501</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2">
-        <v>451</v>
+        <v>697</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>14</v>
@@ -7796,10 +8199,10 @@
         <v>23</v>
       </c>
       <c r="E128" s="2">
-        <v>599</v>
+        <v>451</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>19</v>
@@ -7808,7 +8211,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>14</v>
@@ -7816,8 +8219,8 @@
       <c r="D129" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>189</v>
+      <c r="E129" s="2">
+        <v>599</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>27</v>
@@ -7835,52 +8238,52 @@
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E130" s="2">
-        <v>973</v>
+        <v>23</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="E131" s="2">
-        <v>643</v>
+        <v>973</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>27</v>
@@ -7898,22 +8301,22 @@
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>202</v>
+        <v>23</v>
+      </c>
+      <c r="E133" s="2">
+        <v>500</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -7921,29 +8324,29 @@
       <c r="D134" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E134" s="2">
-        <v>111</v>
+      <c r="E134" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E135" s="2">
-        <v>523</v>
+        <v>111</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>27</v>
@@ -7955,64 +8358,64 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
+      </c>
+      <c r="E136" s="2">
+        <v>523</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E137" s="2">
-        <v>347</v>
+        <v>211</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="H137" s="5"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="E138" s="2">
-        <v>686</v>
+        <v>347</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H138" s="5"/>
     </row>
@@ -8021,16 +8424,16 @@
         <v>212</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>453</v>
+        <v>23</v>
+      </c>
+      <c r="E139" s="2">
+        <v>686</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>19</v>
@@ -8039,16 +8442,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>460</v>
+        <v>212</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E140" s="2">
-        <v>396</v>
+        <v>31</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>27</v>
@@ -8066,10 +8469,10 @@
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E141" s="2">
-        <v>705</v>
+        <v>396</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>27</v>
@@ -8081,28 +8484,28 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>226</v>
+        <v>454</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>227</v>
+        <v>23</v>
+      </c>
+      <c r="E142" s="2">
+        <v>705</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>14</v>
@@ -8110,71 +8513,71 @@
       <c r="D143" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E143" s="2">
-        <v>696</v>
+      <c r="E143" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>237</v>
+        <v>107</v>
+      </c>
+      <c r="E144" s="2">
+        <v>696</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>431</v>
+        <v>234</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E145" s="2">
-        <v>619</v>
+        <v>228</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E146" s="2">
-        <v>416</v>
+        <v>619</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>27</v>
@@ -8182,34 +8585,32 @@
       <c r="G146" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="6"/>
+      <c r="H146" s="5"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>309</v>
+        <v>23</v>
+      </c>
+      <c r="E147" s="2">
+        <v>416</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>314</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>14</v>
@@ -8221,18 +8622,18 @@
         <v>309</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H148" s="5" t="s">
-        <v>327</v>
+      <c r="H148" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>14</v>
@@ -8244,61 +8645,62 @@
         <v>309</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>310</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>309</v>
+        <v>23</v>
+      </c>
+      <c r="E150" s="2">
+        <v>764</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>344</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H150" s="5"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>447</v>
+        <v>309</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>19</v>
+        <v>310</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>14</v>
@@ -8306,11 +8708,11 @@
       <c r="D152" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E152" s="2">
-        <v>598</v>
+      <c r="E152" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>19</v>
@@ -8318,7 +8720,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>14</v>
@@ -8327,10 +8729,10 @@
         <v>23</v>
       </c>
       <c r="E153" s="2">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>19</v>
@@ -8338,7 +8740,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>14</v>
@@ -8350,7 +8752,7 @@
         <v>700</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>19</v>
@@ -8358,7 +8760,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>14</v>
@@ -8367,10 +8769,10 @@
         <v>23</v>
       </c>
       <c r="E155" s="2">
-        <v>573</v>
+        <v>700</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>19</v>
@@ -8378,7 +8780,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>14</v>
@@ -8387,10 +8789,10 @@
         <v>23</v>
       </c>
       <c r="E156" s="2">
-        <v>626</v>
+        <v>573</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>19</v>
@@ -8398,19 +8800,19 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E157" s="2">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>19</v>
@@ -8418,19 +8820,19 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E158" s="2">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>467</v>
+        <v>27</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>19</v>
@@ -8438,7 +8840,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>14</v>
@@ -8447,10 +8849,10 @@
         <v>23</v>
       </c>
       <c r="E159" s="2">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>27</v>
+        <v>464</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>19</v>
@@ -8458,21 +8860,121 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E160" s="2">
+        <v>700</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="2">
+        <v>618</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="2">
+        <v>440</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="2">
+        <v>698</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E160" s="2">
-        <v>618</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G160" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E164" s="2">
+        <v>350</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2">
+        <v>799</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8498,36 +9000,36 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B5" s="8">
         <v>44</v>
@@ -8535,23 +9037,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B8" s="8">
         <v>51</v>
@@ -8559,7 +9061,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B9" s="8">
         <v>52</v>
@@ -8567,7 +9069,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B10" s="8">
         <v>53</v>
@@ -8575,7 +9077,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B11" s="8">
         <v>54</v>
@@ -8583,7 +9085,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B12" s="8">
         <v>55</v>
@@ -8591,7 +9093,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B13" s="8">
         <v>56</v>
@@ -8599,7 +9101,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B14" s="8">
         <v>57</v>
@@ -8607,15 +9109,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B16" s="8">
         <v>58</v>
@@ -8623,34 +9125,34 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8663,15 +9165,15 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B23" s="8">
         <v>71</v>
@@ -8679,7 +9181,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B24" s="8">
         <v>72</v>
@@ -8687,18 +9189,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8706,12 +9208,12 @@
         <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B28" s="8">
         <v>85</v>
@@ -8719,7 +9221,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B29" s="8">
         <v>88</v>
@@ -8727,23 +9229,23 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B32" s="8">
         <v>97</v>
@@ -8751,7 +9253,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B33" s="8">
         <v>98</v>
@@ -8759,47 +9261,47 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8807,23 +9309,23 @@
         <v>239</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8831,7 +9333,7 @@
         <v>152</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -8856,23 +9358,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B3" s="8">
         <v>93</v>
@@ -8880,7 +9382,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B4" s="8">
         <v>94</v>
@@ -8888,7 +9390,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B5" s="8">
         <v>99</v>
@@ -8896,7 +9398,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B6" s="8">
         <v>100</v>
@@ -8904,7 +9406,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7" s="8">
         <v>101</v>
@@ -8912,7 +9414,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B8" s="8">
         <v>102</v>
@@ -8920,7 +9422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9" s="8">
         <v>103</v>
@@ -8928,7 +9430,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B10" s="8">
         <v>104</v>
@@ -8936,7 +9438,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B11" s="8">
         <v>105</v>
@@ -8944,7 +9446,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B12" s="8">
         <v>106</v>
@@ -8952,7 +9454,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B13" s="8">
         <v>107</v>
@@ -8960,7 +9462,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B14" s="8">
         <v>108</v>
@@ -8968,7 +9470,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B15" s="8">
         <v>109</v>
@@ -8976,7 +9478,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B16" s="8">
         <v>110</v>
@@ -8984,7 +9486,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B17" s="8">
         <v>111</v>
@@ -8992,7 +9494,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B18" s="8">
         <v>112</v>
@@ -9000,7 +9502,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B19" s="8">
         <v>113</v>
@@ -9008,7 +9510,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B20" s="8">
         <v>114</v>
@@ -9016,7 +9518,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B21" s="8">
         <v>115</v>
@@ -9024,7 +9526,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B22" s="8">
         <v>116</v>
@@ -9032,7 +9534,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B23" s="8">
         <v>117</v>
@@ -9040,7 +9542,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B24" s="8">
         <v>118</v>
